--- a/VerveStacks_ESP/SysSettings.xlsx
+++ b/VerveStacks_ESP/SysSettings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ESP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B130BA14-E6E5-4254-A89C-42BD99E07C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F197DF99-B989-4B42-86E3-631906481019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system_settings" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="214">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -259,27 +259,6 @@
     <t>IMPDEMZ</t>
   </si>
   <si>
-    <t>~TFM_INS-txt</t>
-  </si>
-  <si>
-    <t>attribute</t>
-  </si>
-  <si>
-    <t>pset_set</t>
-  </si>
-  <si>
-    <t>pset_ci</t>
-  </si>
-  <si>
-    <t>cset_cn</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>t_neg_andor</t>
-  </si>
-  <si>
     <t>~Currencies</t>
   </si>
   <si>
@@ -664,25 +643,43 @@
     <t>kt</t>
   </si>
   <si>
-    <t>prc_tsl</t>
-  </si>
-  <si>
-    <t>coal,nuclear</t>
-  </si>
-  <si>
-    <t>SEASON</t>
-  </si>
-  <si>
-    <t>ELE</t>
-  </si>
-  <si>
     <t>elc_roadtransport</t>
   </si>
   <si>
     <t>electricity used in road transport</t>
   </si>
   <si>
+    <t>NCAP_AF</t>
+  </si>
+  <si>
+    <t>co2captured</t>
+  </si>
+  <si>
+    <t>co2net</t>
+  </si>
+  <si>
+    <t>flo_mark</t>
+  </si>
+  <si>
     <t>ESP</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>elc_spv-ESP</t>
+  </si>
+  <si>
+    <t>solar generation</t>
+  </si>
+  <si>
+    <t>TWh</t>
+  </si>
+  <si>
+    <t>elc_won-ESP</t>
+  </si>
+  <si>
+    <t>wind generation</t>
   </si>
 </sst>
 </file>
@@ -3011,67 +3008,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="B2:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.06640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.06640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.9296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.53125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.06640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.9296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.53125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="2" spans="2:8">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C4" t="s">
+        <v>207</v>
+      </c>
+      <c r="F4" t="s">
         <v>40</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="E4" t="s">
+    <row r="5" spans="2:8">
+      <c r="F5" t="s">
         <v>41</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3083,11 +3078,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F298A9-BCD9-4ABF-BE3B-9D1BDD3E7001}">
-  <dimension ref="B3:I20"/>
+  <dimension ref="B3:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -3101,7 +3094,7 @@
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="17.649999999999999" thickBot="1">
+    <row r="3" spans="2:18" ht="17.649999999999999" thickBot="1">
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
@@ -3112,8 +3105,15 @@
       <c r="G3" s="2"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" ht="15" thickTop="1" thickBot="1">
+      <c r="M3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" spans="2:18" ht="15" thickTop="1" thickBot="1">
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
@@ -3138,8 +3138,26 @@
       <c r="I4" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="2:9">
+      <c r="M4" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="R4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18">
       <c r="B5" t="s">
         <v>17</v>
       </c>
@@ -3149,16 +3167,52 @@
       <c r="E5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="2:9">
+      <c r="M5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" t="s">
+        <v>209</v>
+      </c>
+      <c r="O5" t="s">
+        <v>210</v>
+      </c>
+      <c r="P5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18">
       <c r="C6" t="s">
         <v>21</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="2:9">
+      <c r="M6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" t="s">
+        <v>212</v>
+      </c>
+      <c r="O6" t="s">
+        <v>213</v>
+      </c>
+      <c r="P6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>39</v>
+      </c>
+      <c r="R6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18">
       <c r="C7" t="s">
         <v>20</v>
       </c>
@@ -3166,7 +3220,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:18">
       <c r="C8" t="s">
         <v>23</v>
       </c>
@@ -3174,7 +3228,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:18">
       <c r="C9" t="s">
         <v>24</v>
       </c>
@@ -3182,7 +3236,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:18">
       <c r="C10" t="s">
         <v>22</v>
       </c>
@@ -3190,7 +3244,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:18">
       <c r="C11" t="s">
         <v>25</v>
       </c>
@@ -3198,7 +3252,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="2:18">
       <c r="C12" t="s">
         <v>28</v>
       </c>
@@ -3206,7 +3260,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" spans="2:18">
       <c r="C13" t="s">
         <v>26</v>
       </c>
@@ -3214,7 +3268,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="2:18">
       <c r="C14" t="s">
         <v>27</v>
       </c>
@@ -3222,7 +3276,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:9">
+    <row r="15" spans="2:18">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -3242,7 +3296,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="2:18">
       <c r="B16" t="s">
         <v>38</v>
       </c>
@@ -3289,10 +3343,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="D19" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="E19" t="s">
         <v>18</v>
@@ -3306,16 +3360,32 @@
     </row>
     <row r="20" spans="2:7">
       <c r="B20" t="s">
+        <v>197</v>
+      </c>
+      <c r="C20" t="s">
+        <v>198</v>
+      </c>
+      <c r="D20" t="s">
+        <v>199</v>
+      </c>
+      <c r="E20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="C21" t="s">
         <v>204</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="C22" t="s">
         <v>205</v>
       </c>
-      <c r="D20" t="s">
-        <v>206</v>
-      </c>
-      <c r="E20" t="s">
-        <v>207</v>
+      <c r="E22" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -3609,31 +3679,35 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A64C410-895F-4040-A7AB-3F7211AA7FBD}">
-  <dimension ref="A1:M39"/>
+  <dimension ref="B1:N41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="11.65"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="8.3984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="14.73046875" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.3984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.3984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.73046875" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.3984375" style="11"/>
+    <col min="1" max="1" width="11.3984375" style="11"/>
+    <col min="2" max="2" width="8.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.1328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.46484375" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.46484375" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.9296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.9296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.1328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.53125" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.73046875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.3984375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="12.75">
-      <c r="A1" s="6"/>
-      <c r="B1" s="10"/>
-    </row>
-    <row r="2" spans="1:11" ht="12.75">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
+    <row r="1" spans="2:12" ht="12.75">
+      <c r="B1" s="6"/>
+      <c r="C1" s="10"/>
+    </row>
+    <row r="2" spans="2:12" ht="12.75">
+      <c r="B2" s="12"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
@@ -3641,174 +3715,174 @@
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
-    </row>
-    <row r="3" spans="1:11" ht="12.75">
-      <c r="A3" s="13"/>
+      <c r="J2" s="13"/>
+    </row>
+    <row r="3" spans="2:12" ht="12.75">
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
-      <c r="D3" s="6"/>
+      <c r="D3" s="13"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="13"/>
+      <c r="G3" s="6"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="14" t="s">
+      <c r="J3" s="13"/>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="15" t="s">
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="C5" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="D5" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="E5" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="F5" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="G5" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="H5" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="I5" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="J5" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="K5" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="L5" s="15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="11" t="s">
+    <row r="6" spans="2:12">
+      <c r="D6" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="11">
+      <c r="E6" s="11">
         <v>0</v>
       </c>
-      <c r="E6" s="11">
+      <c r="F6" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="C7" s="11" t="s">
+    <row r="7" spans="2:12">
+      <c r="D7" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="11">
+      <c r="E7" s="11">
         <v>0</v>
       </c>
-      <c r="E7" s="11">
+      <c r="F7" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="C8" s="11" t="s">
+    <row r="8" spans="2:12">
+      <c r="D8" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="11">
+      <c r="E8" s="11">
         <v>0</v>
       </c>
-      <c r="E8" s="11">
+      <c r="F8" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="14" t="s">
+    <row r="9" spans="2:12">
+      <c r="D9" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0</v>
+      </c>
+      <c r="F9" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="D10" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0</v>
+      </c>
+      <c r="F10" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="15" t="s">
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="C14" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="D14" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="E14" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="F14" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="G14" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="H14" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="I14" s="15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="C13" s="11" t="s">
+    <row r="15" spans="2:12">
+      <c r="D15" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="11">
+      <c r="F15" s="11">
         <v>2222</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="G15" s="11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="C14" s="11" t="s">
+    <row r="16" spans="2:12">
+      <c r="D16" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="11">
+      <c r="F16" s="11">
         <v>8888</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="G16" s="11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-    </row>
-    <row r="16" spans="1:11" ht="12.75">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-    </row>
-    <row r="17" spans="1:13" ht="12.75">
-      <c r="A17" s="13"/>
+    <row r="17" spans="2:14" ht="12.75">
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -3817,11 +3891,9 @@
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
-    </row>
-    <row r="18" spans="1:13" ht="12.75">
-      <c r="A18" s="13" t="s">
-        <v>73</v>
-      </c>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="2:14" ht="12.75">
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -3830,47 +3902,25 @@
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
-    </row>
-    <row r="19" spans="1:13" ht="12.75">
-      <c r="A19" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>79</v>
-      </c>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="2:14" ht="12.75">
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
-    </row>
-    <row r="20" spans="1:13" ht="14.25">
-      <c r="A20" t="s">
-        <v>208</v>
-      </c>
-      <c r="B20" t="s">
-        <v>211</v>
-      </c>
-      <c r="C20" t="s">
-        <v>209</v>
-      </c>
+      <c r="J19" s="13"/>
+    </row>
+    <row r="20" spans="2:14" ht="14.25">
+      <c r="B20"/>
+      <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
-      <c r="F20" t="s">
-        <v>210</v>
-      </c>
+      <c r="F20"/>
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20"/>
@@ -3878,42 +3928,54 @@
       <c r="K20"/>
       <c r="L20"/>
       <c r="M20"/>
-    </row>
-    <row r="21" spans="1:13" ht="12.75">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-    </row>
-    <row r="22" spans="1:13" ht="12.75">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-    </row>
-    <row r="23" spans="1:13" ht="12.75">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-    </row>
-    <row r="24" spans="1:13" ht="14.25">
-      <c r="A24"/>
+      <c r="N20"/>
+    </row>
+    <row r="21" spans="2:14" ht="14.25">
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+    </row>
+    <row r="22" spans="2:14" ht="14.25">
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+    </row>
+    <row r="23" spans="2:14" ht="14.25">
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+    </row>
+    <row r="24" spans="2:14" ht="14.25">
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
@@ -3926,9 +3988,9 @@
       <c r="K24"/>
       <c r="L24"/>
       <c r="M24"/>
-    </row>
-    <row r="25" spans="1:13" ht="14.25">
-      <c r="A25"/>
+      <c r="N24"/>
+    </row>
+    <row r="25" spans="2:14" ht="14.25">
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
@@ -3941,9 +4003,9 @@
       <c r="K25"/>
       <c r="L25"/>
       <c r="M25"/>
-    </row>
-    <row r="26" spans="1:13" ht="14.25">
-      <c r="A26"/>
+      <c r="N25"/>
+    </row>
+    <row r="26" spans="2:14" ht="14.25">
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
@@ -3956,9 +4018,9 @@
       <c r="K26"/>
       <c r="L26"/>
       <c r="M26"/>
-    </row>
-    <row r="27" spans="1:13" ht="14.25">
-      <c r="A27"/>
+      <c r="N26"/>
+    </row>
+    <row r="27" spans="2:14" ht="14.25">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
@@ -3971,9 +4033,9 @@
       <c r="K27"/>
       <c r="L27"/>
       <c r="M27"/>
-    </row>
-    <row r="28" spans="1:13" ht="14.25">
-      <c r="A28"/>
+      <c r="N27"/>
+    </row>
+    <row r="28" spans="2:14" ht="14.25">
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
@@ -3986,9 +4048,9 @@
       <c r="K28"/>
       <c r="L28"/>
       <c r="M28"/>
-    </row>
-    <row r="29" spans="1:13" ht="14.25">
-      <c r="A29"/>
+      <c r="N28"/>
+    </row>
+    <row r="29" spans="2:14" ht="14.25">
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
@@ -4001,9 +4063,9 @@
       <c r="K29"/>
       <c r="L29"/>
       <c r="M29"/>
-    </row>
-    <row r="30" spans="1:13" ht="14.25">
-      <c r="A30"/>
+      <c r="N29"/>
+    </row>
+    <row r="30" spans="2:14" ht="14.25">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
@@ -4016,9 +4078,9 @@
       <c r="K30"/>
       <c r="L30"/>
       <c r="M30"/>
-    </row>
-    <row r="31" spans="1:13" ht="14.25">
-      <c r="A31"/>
+      <c r="N30"/>
+    </row>
+    <row r="31" spans="2:14" ht="14.25">
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
@@ -4031,9 +4093,9 @@
       <c r="K31"/>
       <c r="L31"/>
       <c r="M31"/>
-    </row>
-    <row r="32" spans="1:13" ht="14.25">
-      <c r="A32"/>
+      <c r="N31"/>
+    </row>
+    <row r="32" spans="2:14" ht="14.25">
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
@@ -4046,9 +4108,9 @@
       <c r="K32"/>
       <c r="L32"/>
       <c r="M32"/>
-    </row>
-    <row r="33" spans="1:13" ht="14.25">
-      <c r="A33"/>
+      <c r="N32"/>
+    </row>
+    <row r="33" spans="2:14" ht="14.25">
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
@@ -4061,9 +4123,9 @@
       <c r="K33"/>
       <c r="L33"/>
       <c r="M33"/>
-    </row>
-    <row r="34" spans="1:13" ht="14.25">
-      <c r="A34"/>
+      <c r="N33"/>
+    </row>
+    <row r="34" spans="2:14" ht="14.25">
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34"/>
@@ -4076,9 +4138,9 @@
       <c r="K34"/>
       <c r="L34"/>
       <c r="M34"/>
-    </row>
-    <row r="35" spans="1:13" ht="14.25">
-      <c r="A35"/>
+      <c r="N34"/>
+    </row>
+    <row r="35" spans="2:14" ht="14.25">
       <c r="B35"/>
       <c r="C35"/>
       <c r="D35"/>
@@ -4091,9 +4153,9 @@
       <c r="K35"/>
       <c r="L35"/>
       <c r="M35"/>
-    </row>
-    <row r="36" spans="1:13" ht="14.25">
-      <c r="A36"/>
+      <c r="N35"/>
+    </row>
+    <row r="36" spans="2:14" ht="14.25">
       <c r="B36"/>
       <c r="C36"/>
       <c r="D36"/>
@@ -4106,9 +4168,9 @@
       <c r="K36"/>
       <c r="L36"/>
       <c r="M36"/>
-    </row>
-    <row r="37" spans="1:13" ht="14.25">
-      <c r="A37"/>
+      <c r="N36"/>
+    </row>
+    <row r="37" spans="2:14" ht="14.25">
       <c r="B37"/>
       <c r="C37"/>
       <c r="D37"/>
@@ -4121,9 +4183,9 @@
       <c r="K37"/>
       <c r="L37"/>
       <c r="M37"/>
-    </row>
-    <row r="38" spans="1:13" ht="14.25">
-      <c r="A38"/>
+      <c r="N37"/>
+    </row>
+    <row r="38" spans="2:14" ht="14.25">
       <c r="B38"/>
       <c r="C38"/>
       <c r="D38"/>
@@ -4136,9 +4198,9 @@
       <c r="K38"/>
       <c r="L38"/>
       <c r="M38"/>
-    </row>
-    <row r="39" spans="1:13" ht="14.25">
-      <c r="A39"/>
+      <c r="N38"/>
+    </row>
+    <row r="39" spans="2:14" ht="14.25">
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
@@ -4151,6 +4213,37 @@
       <c r="K39"/>
       <c r="L39"/>
       <c r="M39"/>
+      <c r="N39"/>
+    </row>
+    <row r="40" spans="2:14" ht="14.25">
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+    </row>
+    <row r="41" spans="2:14" ht="14.25">
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4161,1612 +4254,1578 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5EBD23C-EA82-4040-97D7-F532F0547462}">
-  <dimension ref="B2:V93"/>
+  <dimension ref="A2:P95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="11.65"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="10.3984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.59765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.3984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.3984375" style="11"/>
-    <col min="12" max="12" width="10.59765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="11.3984375" style="11"/>
+    <col min="1" max="1" width="11.3984375" style="11"/>
+    <col min="2" max="2" width="10.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.3984375" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" ht="17.649999999999999" thickBot="1">
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="20" t="s">
+    <row r="2" spans="1:16" ht="17.649999999999999" thickBot="1">
+      <c r="A2" s="13"/>
+      <c r="B2" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" spans="1:16" ht="15" thickTop="1" thickBot="1">
+      <c r="A3" s="13"/>
+      <c r="B3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="K3" s="4">
+        <v>2022</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="13.15">
+      <c r="A4" s="13"/>
+      <c r="B4" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="G4" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="K4" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P4" s="6">
+        <v>1055.55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="13.15">
+      <c r="A5" s="13"/>
+      <c r="B5" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="K5" s="11">
+        <v>1</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P5" s="6">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="13.15">
+      <c r="A6" s="13"/>
+      <c r="B6" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="K6" s="11">
+        <v>2025</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="P6" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="13.15">
+      <c r="A7" s="13"/>
+      <c r="B7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="K7" s="11">
+        <v>1</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="P7" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="13.15">
+      <c r="A8" s="13"/>
+      <c r="B8" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="G8" s="11" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="3" spans="2:22" ht="15" thickTop="1" thickBot="1">
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P3" s="4" t="s">
+      <c r="I8" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="K8" s="11">
+        <v>2.2201</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P8" s="6">
+        <v>1.05555</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="13.15">
+      <c r="A9" s="13"/>
+      <c r="B9" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="K9" s="11">
+        <v>2.1427</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P9" s="6">
+        <v>4.1868000000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="13.15">
+      <c r="A10" s="13"/>
+      <c r="B10" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="K10" s="11">
+        <v>2.077</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P10" s="6">
+        <v>41.868000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="13.15">
+      <c r="A11" s="13"/>
+      <c r="B11" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="K11" s="11">
+        <v>2.0358000000000001</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P11" s="6">
+        <v>3.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="13.15">
+      <c r="A12" s="13"/>
+      <c r="B12" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="K12" s="11">
+        <v>1.9870000000000001</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="P12" s="6">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="13.15">
+      <c r="A13" s="13"/>
+      <c r="B13" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="K13" s="11">
+        <v>1.9192</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="P13" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="13.15">
+      <c r="A14" s="13"/>
+      <c r="B14" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="K14" s="11">
+        <v>1.8468</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="P14" s="6">
+        <v>5.8615199999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="13.15">
+      <c r="A15" s="13"/>
+      <c r="B15" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="K15" s="11">
+        <v>1.7799</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="P15" s="6">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="13.15">
+      <c r="A16" s="13"/>
+      <c r="B16" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16" s="11">
+        <v>1.722</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P16" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="13.15">
+      <c r="A17" s="13"/>
+      <c r="B17" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="K17" s="11">
+        <v>1.6836</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P17" s="6">
+        <v>37.68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="13.15">
+      <c r="B18" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="K18" s="11">
+        <v>1.6446000000000001</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P18" s="6">
+        <v>2139.4548</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="13.15">
+      <c r="B19" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K19" s="11">
+        <v>1.6102000000000001</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="P19" s="6">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="13.15">
+      <c r="B20" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="K20" s="11">
+        <v>1.5770999999999999</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P20" s="6">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="13.15">
+      <c r="B21" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="K21" s="11">
+        <v>1.5488</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P21" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="13.15">
+      <c r="B22" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="11">
+        <v>1.5224</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P22" s="6">
+        <v>31.536000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="13.15">
+      <c r="B23" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="K23" s="11">
+        <v>1.5058</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P23" s="6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="13.15">
+      <c r="B24" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="K24" s="11">
+        <v>1.4844999999999999</v>
+      </c>
+      <c r="N24" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="O24" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="P24" s="11">
+        <v>5.8615199999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="13.15">
+      <c r="B25" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="K25" s="11">
+        <v>1.4518</v>
+      </c>
+      <c r="N25" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="O25" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="P25" s="11">
         <v>54</v>
       </c>
-      <c r="Q3" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="T3" s="4" t="s">
+    </row>
+    <row r="26" spans="1:16" ht="13.15">
+      <c r="B26" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K26" s="11">
+        <v>1.4198999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="13.15">
+      <c r="B27" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K27" s="11">
+        <v>1.3986000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="13.15">
+      <c r="B28" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="K28" s="11">
+        <v>1.3727</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="13.15">
+      <c r="B29" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K29" s="11">
+        <v>1.3369</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="13.15">
+      <c r="B30" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="K30" s="11">
+        <v>1.2967</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="13.15">
+      <c r="B31" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="K31" s="11">
+        <v>1.2583</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="13.15">
+      <c r="B32" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="K32" s="11">
+        <v>1.2253000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" ht="13.15">
+      <c r="B33" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="K33" s="11">
+        <v>1.2023999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" ht="13.15">
+      <c r="B34" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K34" s="11">
+        <v>1.1931</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" ht="13.15">
+      <c r="B35" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K35" s="11">
+        <v>1.1793</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" ht="13.15">
+      <c r="B36" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K36" s="11">
+        <v>1.1552</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" ht="13.15">
+      <c r="B37" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K37" s="11">
+        <v>1.1334</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" ht="13.15">
+      <c r="B38" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="K38" s="11">
+        <v>1.1136999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" ht="13.15">
+      <c r="B39" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K39" s="11">
+        <v>1.0934999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" ht="13.15">
+      <c r="B40" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="K40" s="11">
+        <v>1.0831</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" ht="13.15">
+      <c r="B41" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="K41" s="11">
+        <v>1.0719000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="13.15">
+      <c r="B42" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="K42" s="11">
+        <v>1.0519000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" ht="13.15">
+      <c r="B43" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="K43" s="11">
+        <v>1.0274000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" ht="13.15">
+      <c r="B44" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K44" s="11">
+        <v>1.0091000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" ht="13.15">
+      <c r="B45" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="G45" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="U3" s="4">
-        <v>2022</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="2:22" ht="14.25">
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="19" t="s">
+      <c r="I45" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K45" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" ht="13.15">
+      <c r="B46" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="K46" s="11">
+        <v>0.98960000000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" ht="13.15">
+      <c r="B47" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="K47" s="11">
+        <v>0.97809999999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" ht="13.15">
+      <c r="B48" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="K48" s="11">
+        <v>0.96499999999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" ht="13.15">
+      <c r="B49" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="K49" s="11">
+        <v>0.94910000000000005</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" ht="13.15">
+      <c r="B50" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="K50" s="11">
+        <v>0.92969999999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" ht="13.15">
+      <c r="B51" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="G51" s="11" t="str">
+        <f>G46</f>
+        <v>G_CUREX</v>
+      </c>
+      <c r="I51" s="11" t="str">
+        <f t="shared" ref="I51:K51" si="0">I46</f>
+        <v>USD20</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="K51" s="11">
+        <f t="shared" si="0"/>
+        <v>0.98960000000000004</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" ht="13.15">
+      <c r="B52" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="K52" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" ht="13.15">
+      <c r="B53" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J53" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="K53" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" ht="13.15">
+      <c r="B54" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="K54" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11">
+      <c r="G55" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="K55" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11">
+      <c r="G56" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="K56" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11">
+      <c r="G57" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J57" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="K57" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11">
+      <c r="G58" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J58" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="M4" s="6"/>
-      <c r="Q4" s="11" t="s">
+      <c r="K58" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11">
+      <c r="G59" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="U4" s="11">
-        <v>0.05</v>
-      </c>
-      <c r="V4" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="2:22" ht="13.15">
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q5" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="U5" s="11">
-        <v>1</v>
-      </c>
-      <c r="V5" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="2:22" ht="13.15">
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q6" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="U6" s="11">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="7" spans="2:22" ht="13.15">
-      <c r="J7" s="6"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q7" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="U7" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:22" ht="13.15">
-      <c r="J8" s="6"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="19" t="s">
+      <c r="J59" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="K59" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11">
+      <c r="G60" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J60" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="K60" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11">
+      <c r="G61" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J61" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="K61" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11">
+      <c r="G62" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J62" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="K62" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11">
+      <c r="G63" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J63" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K63" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11">
+      <c r="G64" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J64" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="K64" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="7:11">
+      <c r="G65" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J65" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="K65" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="7:11">
+      <c r="G66" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J66" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="K66" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="7:11">
+      <c r="G67" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J67" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="K67" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="7:11">
+      <c r="G68" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J68" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="K68" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="7:11">
+      <c r="G69" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J69" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="K69" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="7:11">
+      <c r="G70" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J70" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="Q8" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="S8" s="11" t="s">
+      <c r="K70" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="7:11">
+      <c r="G71" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J71" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K71" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="7:11">
+      <c r="G72" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J72" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="K72" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="7:11">
+      <c r="G73" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J73" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K73" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="7:11">
+      <c r="G74" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J74" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="K74" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="7:11">
+      <c r="G75" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J75" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="K75" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="7:11">
+      <c r="G76" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J76" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="K76" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="7:11">
+      <c r="G77" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J77" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="K77" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="7:11">
+      <c r="G78" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J78" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K78" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="7:11">
+      <c r="G79" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J79" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K79" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="7:11">
+      <c r="G80" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J80" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K80" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="7:11">
+      <c r="G81" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J81" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K81" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="7:11">
+      <c r="G82" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J82" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="K82" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="7:11">
+      <c r="G83" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J83" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K83" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="7:11">
+      <c r="G84" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J84" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="K84" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="7:11">
+      <c r="G85" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J85" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="K85" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="7:11">
+      <c r="G86" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J86" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="K86" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="7:11">
+      <c r="G87" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J87" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="K87" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="7:11">
+      <c r="G88" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J88" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K88" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="7:11">
+      <c r="G89" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J89" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K89" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="7:11">
+      <c r="G90" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J90" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="K90" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="7:11">
+      <c r="G91" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J91" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="K91" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="7:11">
+      <c r="G92" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J92" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="K92" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="7:11">
+      <c r="G93" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J93" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="T8" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="U8" s="11">
-        <v>2.2201</v>
-      </c>
-    </row>
-    <row r="9" spans="2:22" ht="13.15">
-      <c r="J9" s="6"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q9" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="S9" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="T9" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="U9" s="11">
-        <v>2.1427</v>
-      </c>
-    </row>
-    <row r="10" spans="2:22" ht="17.649999999999999" thickBot="1">
-      <c r="D10" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q10" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="S10" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="T10" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="U10" s="11">
-        <v>2.077</v>
-      </c>
-    </row>
-    <row r="11" spans="2:22" ht="15" thickTop="1" thickBot="1">
-      <c r="D11" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q11" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="S11" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="T11" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="U11" s="11">
-        <v>2.0358000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="2:22" ht="13.15">
-      <c r="D12" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F12" s="6">
-        <v>1055.55</v>
-      </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q12" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="S12" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="T12" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="U12" s="11">
-        <v>1.9870000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="2:22" ht="13.15">
-      <c r="D13" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" s="6">
-        <v>3.6</v>
-      </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q13" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="S13" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="T13" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="U13" s="11">
-        <v>1.9192</v>
-      </c>
-    </row>
-    <row r="14" spans="2:22" ht="13.15">
-      <c r="B14" s="13"/>
-      <c r="D14" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F14" s="6">
-        <v>1000</v>
-      </c>
-      <c r="K14" s="13"/>
-      <c r="L14" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q14" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="S14" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="T14" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="U14" s="11">
-        <v>1.8468</v>
-      </c>
-    </row>
-    <row r="15" spans="2:22" ht="13.15">
-      <c r="B15" s="13"/>
-      <c r="D15" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="F15" s="6">
-        <v>1000</v>
-      </c>
-      <c r="K15" s="13"/>
-      <c r="L15" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q15" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="S15" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="T15" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="U15" s="11">
-        <v>1.7799</v>
-      </c>
-    </row>
-    <row r="16" spans="2:22" ht="13.15">
-      <c r="B16" s="13"/>
-      <c r="D16" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F16" s="6">
-        <v>1.05555</v>
-      </c>
-      <c r="K16" s="13"/>
-      <c r="L16" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q16" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="S16" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="T16" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="U16" s="11">
-        <v>1.722</v>
-      </c>
-    </row>
-    <row r="17" spans="4:21" ht="13.15">
-      <c r="D17" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F17" s="6">
-        <v>4.1868000000000002E-2</v>
-      </c>
-      <c r="K17" s="13"/>
-      <c r="L17" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q17" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="S17" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="T17" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="U17" s="11">
-        <v>1.6836</v>
-      </c>
-    </row>
-    <row r="18" spans="4:21" ht="13.15">
-      <c r="D18" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F18" s="6">
-        <v>41.868000000000002</v>
-      </c>
-      <c r="L18" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q18" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="S18" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="T18" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="U18" s="11">
-        <v>1.6446000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="4:21" ht="13.15">
-      <c r="D19" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F19" s="6">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="L19" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q19" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="S19" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="T19" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="U19" s="11">
-        <v>1.6102000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="4:21" ht="13.15">
-      <c r="D20" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F20" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="L20" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q20" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="S20" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="T20" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="U20" s="11">
-        <v>1.5770999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="4:21" ht="13.15">
-      <c r="D21" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F21" s="6">
-        <v>1000</v>
-      </c>
-      <c r="L21" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q21" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="S21" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="T21" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="U21" s="11">
-        <v>1.5488</v>
-      </c>
-    </row>
-    <row r="22" spans="4:21" ht="13.15">
-      <c r="D22" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F22" s="6">
-        <v>5.8615199999999996</v>
-      </c>
-      <c r="L22" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q22" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="S22" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="T22" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="U22" s="11">
-        <v>1.5224</v>
-      </c>
-    </row>
-    <row r="23" spans="4:21" ht="13.15">
-      <c r="D23" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="F23" s="6">
-        <v>1E-3</v>
-      </c>
-      <c r="L23" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q23" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="S23" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="T23" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="U23" s="11">
-        <v>1.5058</v>
-      </c>
-    </row>
-    <row r="24" spans="4:21" ht="13.15">
-      <c r="D24" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F24" s="6">
-        <v>1000</v>
-      </c>
-      <c r="L24" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q24" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="S24" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="T24" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="U24" s="11">
-        <v>1.4844999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="4:21" ht="13.15">
-      <c r="D25" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F25" s="6">
-        <v>37.68</v>
-      </c>
-      <c r="L25" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q25" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="S25" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="T25" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="U25" s="11">
-        <v>1.4518</v>
-      </c>
-    </row>
-    <row r="26" spans="4:21" ht="13.15">
-      <c r="D26" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F26" s="6">
-        <v>2139.4548</v>
-      </c>
-      <c r="L26" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q26" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="S26" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="T26" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="U26" s="11">
-        <v>1.4198999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="4:21" ht="13.15">
-      <c r="D27" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="F27" s="6">
-        <v>2.78</v>
-      </c>
-      <c r="L27" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q27" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="S27" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="T27" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="U27" s="11">
-        <v>1.3986000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="4:21" ht="13.15">
-      <c r="D28" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F28" s="6">
-        <v>3.6</v>
-      </c>
-      <c r="L28" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q28" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="S28" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="T28" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="U28" s="11">
-        <v>1.3727</v>
-      </c>
-    </row>
-    <row r="29" spans="4:21" ht="13.15">
-      <c r="D29" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F29" s="6">
-        <v>1</v>
-      </c>
-      <c r="L29" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q29" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="S29" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="T29" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="U29" s="11">
-        <v>1.3369</v>
-      </c>
-    </row>
-    <row r="30" spans="4:21" ht="13.15">
-      <c r="D30" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F30" s="6">
-        <v>31.536000000000001</v>
-      </c>
-      <c r="L30" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q30" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="S30" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="T30" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="U30" s="11">
-        <v>1.2967</v>
-      </c>
-    </row>
-    <row r="31" spans="4:21" ht="13.15">
-      <c r="D31" s="6" t="s">
+      <c r="K93" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="7:11">
+      <c r="G94" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J94" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F31" s="6">
-        <v>120</v>
-      </c>
-      <c r="L31" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q31" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="S31" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="T31" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="U31" s="11">
-        <v>1.2583</v>
-      </c>
-    </row>
-    <row r="32" spans="4:21" ht="13.15">
-      <c r="D32" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="F32" s="11">
-        <v>5.8615199999999996</v>
-      </c>
-      <c r="L32" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q32" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="S32" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="T32" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="U32" s="11">
-        <v>1.2253000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="4:21" ht="13.15">
-      <c r="D33" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="F33" s="11">
-        <v>54</v>
-      </c>
-      <c r="L33" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q33" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="S33" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="T33" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="U33" s="11">
-        <v>1.2023999999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="4:21" ht="13.15">
-      <c r="L34" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q34" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="S34" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="T34" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="U34" s="11">
-        <v>1.1931</v>
-      </c>
-    </row>
-    <row r="35" spans="4:21" ht="13.15">
-      <c r="L35" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q35" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="S35" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="T35" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="U35" s="11">
-        <v>1.1793</v>
-      </c>
-    </row>
-    <row r="36" spans="4:21" ht="13.15">
-      <c r="L36" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q36" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="S36" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="T36" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="U36" s="11">
-        <v>1.1552</v>
-      </c>
-    </row>
-    <row r="37" spans="4:21" ht="13.15">
-      <c r="L37" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q37" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="S37" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="T37" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="U37" s="11">
-        <v>1.1334</v>
-      </c>
-    </row>
-    <row r="38" spans="4:21" ht="13.15">
-      <c r="L38" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q38" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="S38" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="T38" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="U38" s="11">
-        <v>1.1136999999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="4:21" ht="13.15">
-      <c r="L39" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q39" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="S39" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="T39" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="U39" s="11">
-        <v>1.0934999999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="4:21" ht="13.15">
-      <c r="L40" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q40" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="S40" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="T40" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="U40" s="11">
-        <v>1.0831</v>
-      </c>
-    </row>
-    <row r="41" spans="4:21" ht="13.15">
-      <c r="L41" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q41" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="S41" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="T41" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="U41" s="11">
-        <v>1.0719000000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="4:21" ht="13.15">
-      <c r="L42" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q42" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="S42" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="T42" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="U42" s="11">
-        <v>1.0519000000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="4:21" ht="13.15">
-      <c r="L43" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q43" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="S43" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="T43" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="U43" s="11">
-        <v>1.0274000000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="4:21" ht="13.15">
-      <c r="L44" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q44" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="S44" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="T44" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="U44" s="11">
-        <v>1.0091000000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="4:21" ht="13.15">
-      <c r="L45" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q45" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="S45" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="T45" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="U45" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="4:21" ht="13.15">
-      <c r="L46" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q46" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="S46" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="T46" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="U46" s="11">
-        <v>0.98960000000000004</v>
-      </c>
-    </row>
-    <row r="47" spans="4:21" ht="13.15">
-      <c r="L47" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q47" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="S47" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="T47" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="U47" s="11">
-        <v>0.97809999999999997</v>
-      </c>
-    </row>
-    <row r="48" spans="4:21" ht="13.15">
-      <c r="L48" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q48" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="S48" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="T48" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="U48" s="11">
-        <v>0.96499999999999997</v>
-      </c>
-    </row>
-    <row r="49" spans="12:21" ht="13.15">
-      <c r="L49" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q49" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="S49" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="T49" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="U49" s="11">
-        <v>0.94910000000000005</v>
-      </c>
-    </row>
-    <row r="50" spans="12:21" ht="13.15">
-      <c r="L50" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q50" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="S50" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="T50" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="U50" s="11">
-        <v>0.92969999999999997</v>
-      </c>
-    </row>
-    <row r="51" spans="12:21" ht="13.15">
-      <c r="L51" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q51" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="T51" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="U51" s="11">
+      <c r="K94" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="52" spans="12:21" ht="13.15">
-      <c r="L52" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q52" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="T52" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="U52" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="12:21" ht="13.15">
-      <c r="L53" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q53" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="T53" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="U53" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="12:21" ht="13.15">
-      <c r="L54" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q54" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="T54" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="U54" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="12:21">
-      <c r="Q55" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="T55" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="U55" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="12:21">
-      <c r="Q56" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="T56" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="U56" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="12:21">
-      <c r="Q57" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="T57" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="U57" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="12:21">
-      <c r="Q58" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="T58" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="U58" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="12:21">
-      <c r="Q59" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="T59" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="U59" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="12:21">
-      <c r="Q60" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="T60" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="U60" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="12:21">
-      <c r="Q61" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="T61" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="U61" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="12:21">
-      <c r="Q62" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="T62" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="U62" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="12:21">
-      <c r="Q63" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="T63" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="U63" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="12:21">
-      <c r="Q64" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="T64" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="U64" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="17:21">
-      <c r="Q65" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="T65" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="U65" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="17:21">
-      <c r="Q66" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="T66" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="U66" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="17:21">
-      <c r="Q67" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="T67" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="U67" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="17:21">
-      <c r="Q68" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="T68" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="U68" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="17:21">
-      <c r="Q69" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="T69" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="U69" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="17:21">
-      <c r="Q70" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="T70" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="U70" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="17:21">
-      <c r="Q71" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="T71" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="U71" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="17:21">
-      <c r="Q72" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="T72" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="U72" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="17:21">
-      <c r="Q73" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="T73" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="U73" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="17:21">
-      <c r="Q74" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="T74" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="U74" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="17:21">
-      <c r="Q75" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="T75" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="U75" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="17:21">
-      <c r="Q76" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="T76" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="U76" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="17:21">
-      <c r="Q77" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="T77" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="U77" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="17:21">
-      <c r="Q78" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="T78" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="U78" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="17:21">
-      <c r="Q79" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="T79" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="U79" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="17:21">
-      <c r="Q80" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="T80" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="U80" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="17:21">
-      <c r="Q81" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="T81" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="U81" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="17:21">
-      <c r="Q82" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="T82" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="U82" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="17:21">
-      <c r="Q83" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="T83" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="U83" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="17:21">
-      <c r="Q84" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="T84" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="U84" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="17:21">
-      <c r="Q85" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="T85" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="U85" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="17:21">
-      <c r="Q86" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="T86" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="U86" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="17:21">
-      <c r="Q87" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="T87" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="U87" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="17:21">
-      <c r="Q88" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="T88" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="U88" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="17:21">
-      <c r="Q89" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="T89" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="U89" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="17:21">
-      <c r="Q90" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="T90" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="U90" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="17:21">
-      <c r="Q91" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="T91" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="U91" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="17:21">
-      <c r="Q92" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="T92" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="U92" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="17:21">
-      <c r="Q93" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="T93" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="U93" s="11">
+    <row r="95" spans="7:11">
+      <c r="G95" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J95" s="11" t="str">
+        <f>J51</f>
+        <v>USD21_alt</v>
+      </c>
+      <c r="K95" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -5778,11 +5837,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE1F0D2-7682-484B-9627-54FDDA96E26C}">
-  <dimension ref="A3:D33"/>
+  <dimension ref="B3:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75"/>
   <cols>
@@ -5801,7 +5858,7 @@
         <v>55</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>57</v>
@@ -5809,10 +5866,10 @@
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="6" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D5" s="6">
         <v>-1</v>
@@ -5820,10 +5877,10 @@
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="6" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D6" s="6">
         <v>1</v>
@@ -5831,10 +5888,10 @@
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="6" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>
@@ -5842,10 +5899,10 @@
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="6" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
@@ -5853,10 +5910,10 @@
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="6" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D9" s="6">
         <v>1</v>
@@ -5864,10 +5921,10 @@
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="6" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D10" s="6">
         <v>1</v>
@@ -5875,10 +5932,10 @@
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>165</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>172</v>
       </c>
       <c r="D11" s="6">
         <v>1</v>
@@ -5886,10 +5943,10 @@
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="6" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D12" s="6">
         <v>1</v>
@@ -5897,10 +5954,10 @@
     </row>
     <row r="13" spans="2:4">
       <c r="B13" s="6" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D13" s="6">
         <v>1</v>
@@ -5908,10 +5965,10 @@
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="6" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D14" s="6">
         <v>2</v>
@@ -5919,10 +5976,10 @@
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="6" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D15" s="6">
         <v>1</v>
@@ -5930,128 +5987,128 @@
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="6" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D16" s="16">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="2:4">
       <c r="B17" s="6" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D17" s="16">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="2:4">
       <c r="B18" s="6" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D18" s="16">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="2:4">
       <c r="B19" s="6" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D19" s="16">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="2:4">
       <c r="B20" s="6" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D20" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="18" t="s">
+    <row r="23" spans="2:4">
+      <c r="B23" s="18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="17.649999999999999" thickBot="1">
+      <c r="B25" s="20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="15" thickTop="1" thickBot="1">
+      <c r="B26" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="6" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="17.649999999999999" thickBot="1">
-      <c r="B25" s="20" t="s">
+      <c r="C29" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="6" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" thickTop="1" thickBot="1">
-      <c r="B26" s="4" t="s">
+      <c r="C30" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C31" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="6" t="s">
         <v>185</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="B27" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="B28" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="B29" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="B30" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="B31" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="B32" s="6" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="6" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_ESP/SysSettings.xlsx
+++ b/VerveStacks_ESP/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ESP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F197DF99-B989-4B42-86E3-631906481019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C0D41F-EFA4-438D-AA99-0CBF81FFE9BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
